--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>标题等导入csv文件</t>
+  </si>
+  <si>
+    <t>域名竞价</t>
   </si>
 </sst>
 </file>
@@ -71,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,19 +99,73 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,97 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -221,15 +187,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,10 +212,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,37 +249,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,133 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,24 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +473,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,6 +502,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,20 +534,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,145 +548,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1132,7 +1128,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM(C:C)</f>
-        <v>3800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -1181,7 +1177,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="2">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1192,7 +1188,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="2">
-        <v>44045</v>
+        <v>44410</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -1203,7 +1199,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="2">
-        <v>44084</v>
+        <v>44449</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -1214,13 +1210,24 @@
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="2">
-        <v>44102</v>
+        <v>44467</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -33,7 +33,7 @@
     <t>juziseo</t>
   </si>
   <si>
-    <t>souGou</t>
+    <t>souGou提交url</t>
   </si>
   <si>
     <t>导出工具</t>
@@ -75,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,23 +97,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,15 +134,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,16 +188,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +212,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,35 +235,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,31 +249,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,19 +375,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,126 +430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,24 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,11 +499,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +529,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +560,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>时间</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>域名竞价</t>
+  </si>
+  <si>
+    <t>三个工具</t>
   </si>
 </sst>
 </file>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,23 +100,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,23 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,91 +221,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,13 +252,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,169 +306,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,15 +443,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,6 +476,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,9 +520,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,26 +543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,145 +551,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1128,7 +1131,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM(C:C)</f>
-        <v>5000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -1228,6 +1231,17 @@
       </c>
       <c r="C14" s="1">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>时间</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>三个工具</t>
+  </si>
+  <si>
+    <t>更新域名</t>
   </si>
 </sst>
 </file>
@@ -77,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -99,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -107,14 +118,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +169,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,101 +200,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,21 +446,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,16 +477,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +514,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -543,6 +535,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1060,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1131,7 +1134,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM(C:C)</f>
-        <v>5600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -1242,6 +1245,17 @@
       </c>
       <c r="C15" s="1">
         <v>600</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>时间</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>更新域名</t>
+  </si>
+  <si>
+    <t>修改备案及编写阿里云域名爬虫</t>
+  </si>
+  <si>
+    <t>备案批量查</t>
+  </si>
+  <si>
+    <t>一口价自动购买</t>
   </si>
 </sst>
 </file>
@@ -80,8 +89,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -102,6 +111,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -111,21 +134,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,32 +164,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,31 +203,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,37 +250,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,43 +264,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,60 +420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,61 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +455,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,8 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,21 +502,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,15 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +538,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1134,7 +1143,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM(C:C)</f>
-        <v>5800</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -1256,6 +1265,39 @@
       </c>
       <c r="C16" s="1">
         <v>200</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="2">
+        <v>44661</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="2">
+        <v>44661</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>时间</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>一口价自动购买</t>
+  </si>
+  <si>
+    <t>一口价自动购买+域名竞价优化</t>
   </si>
 </sst>
 </file>
@@ -119,15 +122,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,36 +154,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,11 +167,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,17 +228,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,37 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,19 +267,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +333,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,133 +387,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +458,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +496,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,55 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,145 +566,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM(C:C)</f>
-        <v>6450</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -1298,6 +1301,17 @@
       </c>
       <c r="C19" s="1">
         <v>300</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="2">
+        <v>44674</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
